--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.8666310590329</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H2">
-        <v>15.8666310590329</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I2">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J2">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.508379426279349</v>
+        <v>9.266076</v>
       </c>
       <c r="N2">
-        <v>8.508379426279349</v>
+        <v>27.798228</v>
       </c>
       <c r="O2">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555814</v>
       </c>
       <c r="P2">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555816</v>
       </c>
       <c r="Q2">
-        <v>134.9993172670405</v>
+        <v>194.394633055992</v>
       </c>
       <c r="R2">
-        <v>134.9993172670405</v>
+        <v>1749.551697503928</v>
       </c>
       <c r="S2">
-        <v>0.1144827062365731</v>
+        <v>0.1350108623669571</v>
       </c>
       <c r="T2">
-        <v>0.1144827062365731</v>
+        <v>0.1350108623669571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.8666310590329</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H3">
-        <v>15.8666310590329</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I3">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J3">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.96574430593504</v>
+        <v>2.181666333333333</v>
       </c>
       <c r="N3">
-        <v>1.96574430593504</v>
+        <v>6.544999</v>
       </c>
       <c r="O3">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="P3">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="Q3">
-        <v>31.18973965866597</v>
+        <v>45.76956052583044</v>
       </c>
       <c r="R3">
-        <v>31.18973965866597</v>
+        <v>411.926044732474</v>
       </c>
       <c r="S3">
-        <v>0.02644965822956809</v>
+        <v>0.03178785205952236</v>
       </c>
       <c r="T3">
-        <v>0.02644965822956809</v>
+        <v>0.03178785205952236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.8666310590329</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H4">
-        <v>15.8666310590329</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I4">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J4">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.60258602576448</v>
+        <v>5.380103666666667</v>
       </c>
       <c r="N4">
-        <v>4.60258602576448</v>
+        <v>16.140311</v>
       </c>
       <c r="O4">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="P4">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="Q4">
-        <v>73.02753438826549</v>
+        <v>112.8701381345096</v>
       </c>
       <c r="R4">
-        <v>73.02753438826549</v>
+        <v>1015.831243210586</v>
       </c>
       <c r="S4">
-        <v>0.061929126278583</v>
+        <v>0.07839051132974678</v>
       </c>
       <c r="T4">
-        <v>0.061929126278583</v>
+        <v>0.07839051132974678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.3598083879008</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H5">
-        <v>58.3598083879008</v>
+        <v>177.158558</v>
       </c>
       <c r="I5">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J5">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.508379426279349</v>
+        <v>9.266076</v>
       </c>
       <c r="N5">
-        <v>8.508379426279349</v>
+        <v>27.798228</v>
       </c>
       <c r="O5">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555814</v>
       </c>
       <c r="P5">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555816</v>
       </c>
       <c r="Q5">
-        <v>496.5473930092202</v>
+        <v>547.188220826136</v>
       </c>
       <c r="R5">
-        <v>496.5473930092202</v>
+        <v>4924.693987435225</v>
       </c>
       <c r="S5">
-        <v>0.4210842727001666</v>
+        <v>0.3800328867592697</v>
       </c>
       <c r="T5">
-        <v>0.4210842727001666</v>
+        <v>0.3800328867592697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.3598083879008</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H6">
-        <v>58.3598083879008</v>
+        <v>177.158558</v>
       </c>
       <c r="I6">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J6">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.96574430593504</v>
+        <v>2.181666333333333</v>
       </c>
       <c r="N6">
-        <v>1.96574430593504</v>
+        <v>6.544999</v>
       </c>
       <c r="O6">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="P6">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="Q6">
-        <v>114.720461033976</v>
+        <v>128.8336205501602</v>
       </c>
       <c r="R6">
-        <v>114.720461033976</v>
+        <v>1159.502584951442</v>
       </c>
       <c r="S6">
-        <v>0.0972857426671105</v>
+        <v>0.08947746107437254</v>
       </c>
       <c r="T6">
-        <v>0.0972857426671105</v>
+        <v>0.08947746107437254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.3598083879008</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H7">
-        <v>58.3598083879008</v>
+        <v>177.158558</v>
       </c>
       <c r="I7">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J7">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.60258602576448</v>
+        <v>5.380103666666667</v>
       </c>
       <c r="N7">
-        <v>4.60258602576448</v>
+        <v>16.140311</v>
       </c>
       <c r="O7">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="P7">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="Q7">
-        <v>268.6060385524449</v>
+        <v>317.7104691590598</v>
       </c>
       <c r="R7">
-        <v>268.6060385524449</v>
+        <v>2859.394222431538</v>
       </c>
       <c r="S7">
-        <v>0.2277844571920428</v>
+        <v>0.2206561145740079</v>
       </c>
       <c r="T7">
-        <v>0.2277844571920428</v>
+        <v>0.2206561145740079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.98767108131373</v>
+        <v>5.531174333333333</v>
       </c>
       <c r="H8">
-        <v>3.98767108131373</v>
+        <v>16.593523</v>
       </c>
       <c r="I8">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="J8">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.508379426279349</v>
+        <v>9.266076</v>
       </c>
       <c r="N8">
-        <v>8.508379426279349</v>
+        <v>27.798228</v>
       </c>
       <c r="O8">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555814</v>
       </c>
       <c r="P8">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555816</v>
       </c>
       <c r="Q8">
-        <v>33.92861858701887</v>
+        <v>51.252281741916</v>
       </c>
       <c r="R8">
-        <v>33.92861858701887</v>
+        <v>461.2705356772441</v>
       </c>
       <c r="S8">
-        <v>0.0287722942111407</v>
+        <v>0.03559570882935464</v>
       </c>
       <c r="T8">
-        <v>0.0287722942111407</v>
+        <v>0.03559570882935465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.98767108131373</v>
+        <v>5.531174333333333</v>
       </c>
       <c r="H9">
-        <v>3.98767108131373</v>
+        <v>16.593523</v>
       </c>
       <c r="I9">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="J9">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.96574430593504</v>
+        <v>2.181666333333333</v>
       </c>
       <c r="N9">
-        <v>1.96574430593504</v>
+        <v>6.544999</v>
       </c>
       <c r="O9">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="P9">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="Q9">
-        <v>7.838741722034289</v>
+        <v>12.06717682683078</v>
       </c>
       <c r="R9">
-        <v>7.838741722034289</v>
+        <v>108.604591441477</v>
       </c>
       <c r="S9">
-        <v>0.006647443735236707</v>
+        <v>0.008380889554989524</v>
       </c>
       <c r="T9">
-        <v>0.006647443735236707</v>
+        <v>0.008380889554989524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.98767108131373</v>
+        <v>5.531174333333333</v>
       </c>
       <c r="H10">
-        <v>3.98767108131373</v>
+        <v>16.593523</v>
       </c>
       <c r="I10">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="J10">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.60258602576448</v>
+        <v>5.380103666666667</v>
       </c>
       <c r="N10">
-        <v>4.60258602576448</v>
+        <v>16.140311</v>
       </c>
       <c r="O10">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="P10">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="Q10">
-        <v>18.35359919419971</v>
+        <v>29.75829131173922</v>
       </c>
       <c r="R10">
-        <v>18.35359919419971</v>
+        <v>267.824621805653</v>
       </c>
       <c r="S10">
-        <v>0.01556429874957866</v>
+        <v>0.02066771345177937</v>
       </c>
       <c r="T10">
-        <v>0.01556429874957866</v>
+        <v>0.02066771345177937</v>
       </c>
     </row>
   </sheetData>
